--- a/RQ2_Taxonomy/evaluation/post_sentences.xlsx
+++ b/RQ2_Taxonomy/evaluation/post_sentences.xlsx
@@ -1048,11 +1048,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2642</v>
+        <v>395</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Could you please provide an example for me to refer?</t>
+          <t>Where can I refer to the list of possible -CODE- names?</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
